--- a/PHP Website bán hàng.xlsx
+++ b/PHP Website bán hàng.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD123192-FEB4-4B00-BEAE-CF83AE879334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8B6F0-D44F-46A4-A699-307FF804C2F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -138,6 +138,42 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-pWlj1S1ufE</t>
+  </si>
+  <si>
+    <t>Link học Back-End.</t>
+  </si>
+  <si>
+    <t>Khả năng nó đang không ăn được vào trong.</t>
+  </si>
+  <si>
+    <t>Nguyên nhân là tại đâu nhỉ</t>
+  </si>
+  <si>
+    <t>Tại sao lại không thể CSS được.</t>
+  </si>
+  <si>
+    <t>Css nó ra bình thường đây, file kia nó bị lỗi gì rồi.</t>
+  </si>
+  <si>
+    <t>Link Video Code tạo gao diện cho trang web học Full:</t>
+  </si>
+  <si>
+    <t>Link Video Code Logic 3 lớp cho trang web học Full:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wsLHHJFIO4g&amp;list=PLPNDi-wPpMzgEZnBnAAijM-SS7SidP2jr&amp;index=13</t>
+  </si>
+  <si>
+    <t>Thêm dữ liệu.</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu từ ô nhập liệu trên trang Web.</t>
+  </si>
+  <si>
+    <t>xử lý Form với input type="text"</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z_yklMHacWY</t>
   </si>
 </sst>
 </file>
@@ -772,14 +808,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>268439</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>162506</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,8 +838,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="2286000"/>
-          <a:ext cx="12460439" cy="4163006"/>
+          <a:off x="4267200" y="428625"/>
+          <a:ext cx="10487025" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C01E8E-2206-43A6-B681-44485BCC7541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="1152524"/>
+          <a:ext cx="4162425" cy="2276476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219546</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6534B7BC-3394-43D1-A9AB-683D31B39805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="800100"/>
+          <a:ext cx="3372321" cy="3286584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,26 +1439,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE67B4D-13A9-47C5-9E23-AE60AC410B8F}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{3F3AA095-961C-4CD9-B6E2-3A2E8DF5FE42}"/>
+    <hyperlink ref="O1" r:id="rId2" xr:uid="{2D3A21CA-4136-4381-AC53-B4B0E2F1BAD2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/PHP Website bán hàng.xlsx
+++ b/PHP Website bán hàng.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D8B6F0-D44F-46A4-A699-307FF804C2F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Link Video học" sheetId="1" r:id="rId1"/>
@@ -13,6 +12,7 @@
     <sheet name="Tạo ra SearchBox" sheetId="3" r:id="rId3"/>
     <sheet name="Cách để sử dụng Icon trong HTML" sheetId="4" r:id="rId4"/>
     <sheet name="Chèn Check box vào bangr html" sheetId="5" r:id="rId5"/>
+    <sheet name="Nhập dữ liệu từ Form html" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -174,12 +174,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Z_yklMHacWY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UmnSom1k_ww</t>
+  </si>
+  <si>
+    <t>Phải sử dụng css.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,15 +813,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -838,7 +844,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="428625"/>
+          <a:off x="4333875" y="485775"/>
           <a:ext cx="10487025" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -928,6 +934,49 @@
         <a:xfrm>
           <a:off x="14763750" y="800100"/>
           <a:ext cx="3372321" cy="3286584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>382419</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="1133475"/>
+          <a:ext cx="10164594" cy="6049219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1359,8 +1408,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{62AC760F-81AE-4AD5-9233-6B78C1B37251}"/>
-    <hyperlink ref="C60" r:id="rId2" xr:uid="{67277066-BCA4-486B-8E67-D9AEFE4DEED8}"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="C60" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -1368,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E648D1-FD99-45F8-84F9-75069C902233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1402,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC86C03-E7F8-4496-8CFC-FC2B62872FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1417,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64455069-44FA-4F55-873C-D334EDFDF4AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1438,11 +1487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE67B4D-13A9-47C5-9E23-AE60AC410B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,10 +1569,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{3F3AA095-961C-4CD9-B6E2-3A2E8DF5FE42}"/>
-    <hyperlink ref="O1" r:id="rId2" xr:uid="{2D3A21CA-4136-4381-AC53-B4B0E2F1BAD2}"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="O1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PHP Website bán hàng.xlsx
+++ b/PHP Website bán hàng.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0FC485-9291-4C61-8FD7-82B78201F9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link Video học" sheetId="1" r:id="rId1"/>
@@ -13,6 +14,8 @@
     <sheet name="Cách để sử dụng Icon trong HTML" sheetId="4" r:id="rId4"/>
     <sheet name="Chèn Check box vào bangr html" sheetId="5" r:id="rId5"/>
     <sheet name="Nhập dữ liệu từ Form html" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -180,12 +183,36 @@
   </si>
   <si>
     <t>Phải sử dụng css.</t>
+  </si>
+  <si>
+    <t>Truyền dữ liệu từ View sang Controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BootTrapForm </t>
+  </si>
+  <si>
+    <t>Copy tất cả những cái này.</t>
+  </si>
+  <si>
+    <t>Có thế mà ko nghĩ ra sớm.</t>
+  </si>
+  <si>
+    <t>Nó có truyền được dữ liệu sang Form</t>
+  </si>
+  <si>
+    <t>Truyền được dữ liệu sang rồi nhưng lại bị lỗi.</t>
+  </si>
+  <si>
+    <t>Thêm xong quay trở về trang Index,</t>
+  </si>
+  <si>
+    <t>Thêm xong quay trở về trang index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,15 +840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -844,7 +871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="485775"/>
+          <a:off x="4352925" y="523875"/>
           <a:ext cx="10487025" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -950,19 +977,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>382419</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>134194</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>477669</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -975,8 +1008,150 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="1133475"/>
+          <a:off x="676275" y="809625"/>
           <a:ext cx="10164594" cy="6049219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C6ADB3-2F2E-4B31-824B-BBA287163FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="800100"/>
+          <a:ext cx="2981325" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>96162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDA3E6E-1A2B-436A-A33D-342416B596E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="419100"/>
+          <a:ext cx="10315575" cy="6535062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4ED193-4160-49E0-8E9C-707E00108090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="809625"/>
+          <a:ext cx="9648825" cy="4753638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1408,8 +1583,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="C60" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -1417,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1451,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1466,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1487,11 +1662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28:Q29"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1690,7 @@
       <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1569,32 +1744,105 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="O1" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="O1" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{FEE342CE-568B-4FD4-93DB-CBE99808BCE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BF894A-82BE-49A1-A982-F765EA319E1C}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T28" sqref="T28:U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AF5B86-4B14-4735-9875-15092956DBFF}">
+  <dimension ref="E31:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/PHP Website bán hàng.xlsx
+++ b/PHP Website bán hàng.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0FC485-9291-4C61-8FD7-82B78201F9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3CDD5-C73C-49B3-BB8D-5D9CEA4B1423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link Video học" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,14 @@
     <sheet name="Tạo ra SearchBox" sheetId="3" r:id="rId3"/>
     <sheet name="Cách để sử dụng Icon trong HTML" sheetId="4" r:id="rId4"/>
     <sheet name="Chèn Check box vào bangr html" sheetId="5" r:id="rId5"/>
-    <sheet name="Nhập dữ liệu từ Form html" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId6"/>
+    <sheet name="Nhập dữ liệu từ Form html" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Cập nhật đơn hàng" sheetId="9" r:id="rId10"/>
+    <sheet name="Sửa theo mô hình MVC" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -207,6 +212,45 @@
   </si>
   <si>
     <t>Thêm xong quay trở về trang index</t>
+  </si>
+  <si>
+    <t>Làm sao để kích vào đây mà nó lấy được id.</t>
+  </si>
+  <si>
+    <t>Tạo ra một View mới để cập nhật đơn hàng.</t>
+  </si>
+  <si>
+    <t>Truyền vào trong View là một đối tượng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ thẻ link sửa này làm sao nó lấy ra được cái ID </t>
+  </si>
+  <si>
+    <t>Nếu mà sửa như vậy thì thực  sự là quá ăn sẵn rồi.</t>
+  </si>
+  <si>
+    <t>nâng server 2012 lên 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ou </t>
+  </si>
+  <si>
+    <t>polycy</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau khi đổi quyền </t>
+  </si>
+  <si>
+    <t>chuyển dns của Clien</t>
+  </si>
+  <si>
+    <t>kiểm lên 2022 còn vẹn nguyên ou,polycy ko?</t>
+  </si>
+  <si>
+    <t>Bài toán nâng cấp winserver từ 2012 lên 2022</t>
   </si>
 </sst>
 </file>
@@ -688,27 +732,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66868</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2F7F86-49A4-49FF-9F6D-0BD30714031C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277AFD90-7C8B-471C-AB36-9396FDC14585}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -724,8 +768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638176" y="400050"/>
-          <a:ext cx="2362199" cy="1381318"/>
+          <a:off x="628650" y="219075"/>
+          <a:ext cx="9096375" cy="4725059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,30 +778,144 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC4033C-3A5E-4A31-917A-000DDBA250F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="1323975"/>
+          <a:ext cx="3257550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135AD39E-EC00-4AD4-94FD-1E0A6097EA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6781800" y="571500"/>
+          <a:ext cx="3543300" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFEDC7A-7276-43E4-AEBA-5482529ED471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D35387E-85E0-4B5B-A141-90EE41FAF1BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="133349"/>
-          <a:ext cx="7143750" cy="3609975"/>
+          <a:off x="142876" y="219075"/>
+          <a:ext cx="9086849" cy="4534533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,30 +941,127 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>124483</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EF6BAF-D86E-4642-BF89-4231E85776F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868150" y="95250"/>
+          <a:ext cx="4715533" cy="3696216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE440994-E9C8-41B4-BB01-016D102C3A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9001125" y="2219326"/>
+          <a:ext cx="3067050" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>210481</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134017</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED6EB42-8391-4969-8754-003BADA6D981}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65115A05-B951-4228-A26C-E4EA7357DD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -822,8 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="876300"/>
-          <a:ext cx="6668431" cy="4782217"/>
+          <a:off x="628650" y="209550"/>
+          <a:ext cx="10353675" cy="5744377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,27 +1090,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E4650A-70B2-4A25-92BE-E1BD773F19CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2F7F86-49A4-49FF-9F6D-0BD30714031C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -871,6 +1126,153 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="638176" y="400050"/>
+          <a:ext cx="2362199" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFEDC7A-7276-43E4-AEBA-5482529ED471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="133349"/>
+          <a:ext cx="7143750" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210481</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED6EB42-8391-4969-8754-003BADA6D981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="876300"/>
+          <a:ext cx="6668431" cy="4782217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E4650A-70B2-4A25-92BE-E1BD773F19CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="4352925" y="523875"/>
           <a:ext cx="10487025" cy="3762375"/>
         </a:xfrm>
@@ -969,6 +1371,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FCCFF0-D253-4108-9017-5A328A62EB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12325350" y="1647825"/>
+          <a:ext cx="1352550" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -976,23 +1431,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>477669</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>844</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>420085</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C4BFD5-271A-4345-AC5E-948008B4E463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,6 +1463,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="1895475" y="1400175"/>
+          <a:ext cx="7059010" cy="885949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>477669</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="676275" y="809625"/>
           <a:ext cx="10164594" cy="6049219"/>
         </a:xfrm>
@@ -1065,7 +1569,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1114,20 +1618,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38763</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1150,14 +1654,111 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876425" y="809625"/>
-          <a:ext cx="9648825" cy="4753638"/>
+          <a:off x="114301" y="209550"/>
+          <a:ext cx="7753350" cy="4753638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E4AA39-2DF1-4800-A87A-25CE020282DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="238125"/>
+          <a:ext cx="8401050" cy="4820323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D16B370-4554-4A8A-AA11-073A68CF2D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563225" y="3400425"/>
+          <a:ext cx="76200" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1591,6 +2192,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F4BC1A-B55F-45FD-8BD1-CF0DD670A2E8}">
+  <dimension ref="R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CBAE01-899C-4D68-AB82-06BB7BB5E8BF}">
+  <dimension ref="S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="22" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA85D0A-0163-42EA-99C7-2BC4C7856A9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEE4B27-0EA1-40AD-A97B-CF0366F31726}">
+  <dimension ref="D5:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
@@ -1663,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,12 +2415,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>42</v>
       </c>
@@ -1717,17 +2428,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>48</v>
       </c>
@@ -1754,6 +2470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83150EC1-AB46-4C1D-A596-6BE0F09D090F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -1789,7 +2520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BF894A-82BE-49A1-A982-F765EA319E1C}">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -1825,19 +2556,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AF5B86-4B14-4735-9875-15092956DBFF}">
-  <dimension ref="E31:E33"/>
+  <dimension ref="E30:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">

--- a/PHP Website bán hàng.xlsx
+++ b/PHP Website bán hàng.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3CDD5-C73C-49B3-BB8D-5D9CEA4B1423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55581A2-4D55-49CC-B984-2C73863871DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link Video học" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
     <sheet name="Cập nhật đơn hàng" sheetId="9" r:id="rId10"/>
     <sheet name="Sửa theo mô hình MVC" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet7" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="15" r:id="rId13"/>
+    <sheet name="Thẻ a trong PHP" sheetId="12" r:id="rId14"/>
+    <sheet name="Tạo chức năng sửa xóa sản phẩm" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -229,28 +231,37 @@
     <t>Nếu mà sửa như vậy thì thực  sự là quá ăn sẵn rồi.</t>
   </si>
   <si>
-    <t>nâng server 2012 lên 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ou </t>
-  </si>
-  <si>
-    <t>polycy</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sau khi đổi quyền </t>
-  </si>
-  <si>
-    <t>chuyển dns của Clien</t>
-  </si>
-  <si>
-    <t>kiểm lên 2022 còn vẹn nguyên ou,polycy ko?</t>
-  </si>
-  <si>
-    <t>Bài toán nâng cấp winserver từ 2012 lên 2022</t>
+    <t>Nguyên tắc là phải lấy sang một Form mới chứ không sao lấy được ID.</t>
+  </si>
+  <si>
+    <t>Do Id truyền trong URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành công, đã chuyển được sang Form sửa </t>
+  </si>
+  <si>
+    <t>Lấy giá trị từ csdl</t>
+  </si>
+  <si>
+    <t>đây này , cách lấy ID sản phẩm.</t>
+  </si>
+  <si>
+    <t>Link video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ek-3RImSfbM&amp;list=PLPNDi-wPpMzgEZnBnAAijM-SS7SidP2jr&amp;index=14</t>
+  </si>
+  <si>
+    <t>Sửa thì nó nhảy sang trang chi tiết của đơn hàng đó.</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>action Chi tiết.</t>
+  </si>
+  <si>
+    <t>Cho nội dung thẻ a vào bên trong.</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1053,694 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257993</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3812D1BB-4468-4F3E-8EBE-6F856575A29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="1790700"/>
+          <a:ext cx="5858693" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>663</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB76D011-0729-4CBC-81BA-4D0740174912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="3676650"/>
+          <a:ext cx="4753638" cy="800212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B2B2C7-1552-41FC-8CC0-9A4216D9408B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981949" y="1133475"/>
+          <a:ext cx="8515351" cy="4924425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0746B82-58FC-4291-B85F-912CF8B45ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982076" y="2266951"/>
+          <a:ext cx="6191250" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>505741</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6651FC-4C0A-48B7-AA9B-6C54BAD0928E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="771525"/>
+          <a:ext cx="6563641" cy="3057952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3996691A-A326-4637-966F-366F3179074D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="1857375"/>
+          <a:ext cx="657225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952D68F5-6B1F-48AC-B03C-C7351EFF8947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="1809750"/>
+          <a:ext cx="561975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC23F93-BC5F-4AB9-A9B3-FC406292F95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="1847850"/>
+          <a:ext cx="1333500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E984D317-6F6A-4581-A88A-9CDA489AD35F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2419350" y="2133600"/>
+          <a:ext cx="2166938" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7C8FDB-0371-47CF-9569-D1AA4DC1E292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="2028825"/>
+          <a:ext cx="133350" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AC5127-C822-4C59-B6AD-1F0834D36CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="2009775"/>
+          <a:ext cx="2124075" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C03452-977A-4BBD-AC2C-FD9C0EDF26A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="819150"/>
+          <a:ext cx="6629400" cy="2429214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB9DDFC-F0C1-4F4B-8DDA-0EDFEA0C2F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13115925" y="2019300"/>
+          <a:ext cx="2562225" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2218,7 +2917,7 @@
   <dimension ref="S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,6 +2934,91 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEE4B27-0EA1-40AD-A97B-CF0366F31726}">
+  <dimension ref="A2:P34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEB46B7-FBC7-4888-A9BE-45677EB0C2FC}">
+  <dimension ref="C24:U26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA85D0A-0163-42EA-99C7-2BC4C7856A9F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2249,55 +3033,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEE4B27-0EA1-40AD-A97B-CF0366F31726}">
-  <dimension ref="D5:J18"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABF94C5-29E7-4728-971B-DCF6FA94AD4C}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
